--- a/data/update2019/ospree_2019update_cjc.xlsx
+++ b/data/update2019/ospree_2019update_cjc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/ospree/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/ospree/data/update2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="307">
   <si>
     <t>datasetID</t>
   </si>
@@ -998,6 +998,15 @@
   </si>
   <si>
     <t>fig2e</t>
+  </si>
+  <si>
+    <t>95% confidence interval</t>
+  </si>
+  <si>
+    <t>Screen Shot 2019-07-18 at 3.52.12 PM.png</t>
+  </si>
+  <si>
+    <t>Screen Shot 2019-07-18 at 3.52.23 PM.png</t>
   </si>
 </sst>
 </file>
@@ -1097,9 +1106,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1148,9 +1158,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1505,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2810,9 +2821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2895,8 +2906,17 @@
       <c r="F2" t="s">
         <v>300</v>
       </c>
+      <c r="H2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
       <c r="M2" t="s">
         <v>300</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
       </c>
       <c r="T2" t="s">
         <v>301</v>
@@ -2911,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N6" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25:X34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3112,7 +3132,13 @@
       <c r="O2" t="s">
         <v>289</v>
       </c>
+      <c r="P2" t="s">
+        <v>290</v>
+      </c>
       <c r="R2" t="s">
+        <v>282</v>
+      </c>
+      <c r="S2" t="s">
         <v>282</v>
       </c>
       <c r="U2" t="s">
@@ -3131,7 +3157,13 @@
         <v>1</v>
       </c>
       <c r="AA2">
-        <v>106.239</v>
+        <v>106.812</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD2">
+        <v>5.6560000000000059</v>
       </c>
       <c r="AE2" t="s">
         <v>302</v>
@@ -3180,9 +3212,15 @@
       <c r="O3" t="s">
         <v>289</v>
       </c>
+      <c r="P3" t="s">
+        <v>290</v>
+      </c>
       <c r="R3" t="s">
         <v>283</v>
       </c>
+      <c r="S3" t="s">
+        <v>282</v>
+      </c>
       <c r="U3" t="s">
         <v>283</v>
       </c>
@@ -3199,7 +3237,13 @@
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>106.41500000000001</v>
+        <v>113.239</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD3">
+        <v>2.8279999999999887</v>
       </c>
       <c r="AE3" t="s">
         <v>302</v>
@@ -3248,9 +3292,15 @@
       <c r="O4" t="s">
         <v>289</v>
       </c>
+      <c r="P4" t="s">
+        <v>290</v>
+      </c>
       <c r="R4" t="s">
         <v>283</v>
       </c>
+      <c r="S4" t="s">
+        <v>282</v>
+      </c>
       <c r="U4" t="s">
         <v>283</v>
       </c>
@@ -3267,7 +3317,13 @@
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>112.214</v>
+        <v>106.55500000000001</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD4">
+        <v>2.570999999999998</v>
       </c>
       <c r="AE4" t="s">
         <v>302</v>
@@ -3316,9 +3372,15 @@
       <c r="O5" t="s">
         <v>289</v>
       </c>
+      <c r="P5" t="s">
+        <v>290</v>
+      </c>
       <c r="R5" t="s">
         <v>284</v>
       </c>
+      <c r="S5" t="s">
+        <v>282</v>
+      </c>
       <c r="U5" t="s">
         <v>284</v>
       </c>
@@ -3335,7 +3397,13 @@
         <v>1</v>
       </c>
       <c r="AA5">
-        <v>103.251</v>
+        <v>103.985</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD5">
+        <v>5.9120000000000061</v>
       </c>
       <c r="AE5" t="s">
         <v>302</v>
@@ -3384,9 +3452,15 @@
       <c r="O6" t="s">
         <v>289</v>
       </c>
+      <c r="P6" t="s">
+        <v>290</v>
+      </c>
       <c r="R6" t="s">
         <v>285</v>
       </c>
+      <c r="S6" t="s">
+        <v>282</v>
+      </c>
       <c r="U6" t="s">
         <v>285</v>
       </c>
@@ -3403,7 +3477,13 @@
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>100.08799999999999</v>
+        <v>104.242</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD6">
+        <v>2.5699999999999932</v>
       </c>
       <c r="AE6" t="s">
         <v>302</v>
@@ -3452,9 +3532,15 @@
       <c r="O7" t="s">
         <v>289</v>
       </c>
+      <c r="P7" t="s">
+        <v>290</v>
+      </c>
       <c r="R7" t="s">
         <v>285</v>
       </c>
+      <c r="S7" t="s">
+        <v>282</v>
+      </c>
       <c r="U7" t="s">
         <v>285</v>
       </c>
@@ -3471,7 +3557,13 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>103.60299999999999</v>
+        <v>100.9</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD7">
+        <v>2.5699999999999932</v>
       </c>
       <c r="AE7" t="s">
         <v>302</v>
@@ -3520,9 +3612,15 @@
       <c r="O8" t="s">
         <v>289</v>
       </c>
+      <c r="P8" t="s">
+        <v>290</v>
+      </c>
       <c r="R8" t="s">
         <v>286</v>
       </c>
+      <c r="S8" t="s">
+        <v>282</v>
+      </c>
       <c r="U8" t="s">
         <v>286</v>
       </c>
@@ -3539,7 +3637,13 @@
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>100.61499999999999</v>
+        <v>101.414</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD8">
+        <v>5.3979999999999961</v>
       </c>
       <c r="AE8" t="s">
         <v>302</v>
@@ -3588,9 +3692,15 @@
       <c r="O9" t="s">
         <v>289</v>
       </c>
+      <c r="P9" t="s">
+        <v>290</v>
+      </c>
       <c r="R9" t="s">
         <v>286</v>
       </c>
+      <c r="S9" t="s">
+        <v>282</v>
+      </c>
       <c r="U9" t="s">
         <v>286</v>
       </c>
@@ -3607,7 +3717,13 @@
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>94.287999999999997</v>
+        <v>95.244</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD9">
+        <v>5.3990000000000009</v>
       </c>
       <c r="AE9" t="s">
         <v>302</v>
@@ -3656,7 +3772,13 @@
       <c r="O10" t="s">
         <v>289</v>
       </c>
+      <c r="P10" t="s">
+        <v>290</v>
+      </c>
       <c r="R10" t="s">
+        <v>282</v>
+      </c>
+      <c r="S10" t="s">
         <v>282</v>
       </c>
       <c r="U10" t="s">
@@ -3675,7 +3797,13 @@
         <v>1</v>
       </c>
       <c r="AA10">
-        <v>70.725999999999999</v>
+        <v>70.769000000000005</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD10">
+        <v>8.7179999999999893</v>
       </c>
       <c r="AE10" t="s">
         <v>303</v>
@@ -3724,7 +3852,13 @@
       <c r="O11" t="s">
         <v>289</v>
       </c>
+      <c r="P11" t="s">
+        <v>290</v>
+      </c>
       <c r="R11" t="s">
+        <v>282</v>
+      </c>
+      <c r="S11" t="s">
         <v>282</v>
       </c>
       <c r="U11" t="s">
@@ -3743,7 +3877,13 @@
         <v>1</v>
       </c>
       <c r="AA11">
-        <v>70.725999999999999</v>
+        <v>70.769000000000005</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD11">
+        <v>12.051999999999992</v>
       </c>
       <c r="AE11" t="s">
         <v>303</v>
@@ -3792,9 +3932,15 @@
       <c r="O12" t="s">
         <v>289</v>
       </c>
+      <c r="P12" t="s">
+        <v>290</v>
+      </c>
       <c r="R12" t="s">
         <v>283</v>
       </c>
+      <c r="S12" t="s">
+        <v>282</v>
+      </c>
       <c r="U12" t="s">
         <v>283</v>
       </c>
@@ -3811,7 +3957,13 @@
         <v>1</v>
       </c>
       <c r="AA12">
-        <v>64.316000000000003</v>
+        <v>64.614999999999995</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD12">
+        <v>6.6670000000000016</v>
       </c>
       <c r="AE12" t="s">
         <v>303</v>
@@ -3860,9 +4012,15 @@
       <c r="O13" t="s">
         <v>289</v>
       </c>
+      <c r="P13" t="s">
+        <v>290</v>
+      </c>
       <c r="R13" t="s">
         <v>283</v>
       </c>
+      <c r="S13" t="s">
+        <v>282</v>
+      </c>
       <c r="U13" t="s">
         <v>283</v>
       </c>
@@ -3879,7 +4037,13 @@
         <v>1</v>
       </c>
       <c r="AA13">
-        <v>67.734999999999999</v>
+        <v>67.691999999999993</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD13">
+        <v>6.1540000000000106</v>
       </c>
       <c r="AE13" t="s">
         <v>303</v>
@@ -3928,9 +4092,15 @@
       <c r="O14" t="s">
         <v>289</v>
       </c>
+      <c r="P14" t="s">
+        <v>290</v>
+      </c>
       <c r="R14" t="s">
         <v>284</v>
       </c>
+      <c r="S14" t="s">
+        <v>282</v>
+      </c>
       <c r="U14" t="s">
         <v>284</v>
       </c>
@@ -3947,7 +4117,13 @@
         <v>1</v>
       </c>
       <c r="AA14">
-        <v>68.162000000000006</v>
+        <v>68.204999999999998</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD14">
+        <v>5.6410000000000053</v>
       </c>
       <c r="AE14" t="s">
         <v>303</v>
@@ -3996,9 +4172,15 @@
       <c r="O15" t="s">
         <v>289</v>
       </c>
+      <c r="P15" t="s">
+        <v>290</v>
+      </c>
       <c r="R15" t="s">
         <v>284</v>
       </c>
+      <c r="S15" t="s">
+        <v>282</v>
+      </c>
       <c r="U15" t="s">
         <v>284</v>
       </c>
@@ -4015,7 +4197,13 @@
         <v>1</v>
       </c>
       <c r="AA15">
-        <v>64.53</v>
+        <v>64.614999999999995</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD15">
+        <v>5.8980000000000103</v>
       </c>
       <c r="AE15" t="s">
         <v>303</v>
@@ -4064,9 +4252,15 @@
       <c r="O16" t="s">
         <v>289</v>
       </c>
+      <c r="P16" t="s">
+        <v>290</v>
+      </c>
       <c r="R16" t="s">
         <v>285</v>
       </c>
+      <c r="S16" t="s">
+        <v>282</v>
+      </c>
       <c r="U16" t="s">
         <v>285</v>
       </c>
@@ -4083,7 +4277,13 @@
         <v>1</v>
       </c>
       <c r="AA16">
-        <v>64.744</v>
+        <v>65.641000000000005</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD16">
+        <v>5.1280000000000001</v>
       </c>
       <c r="AE16" t="s">
         <v>303</v>
@@ -4132,9 +4332,15 @@
       <c r="O17" t="s">
         <v>289</v>
       </c>
+      <c r="P17" t="s">
+        <v>290</v>
+      </c>
       <c r="R17" t="s">
         <v>285</v>
       </c>
+      <c r="S17" t="s">
+        <v>282</v>
+      </c>
       <c r="U17" t="s">
         <v>285</v>
       </c>
@@ -4151,7 +4357,13 @@
         <v>1</v>
       </c>
       <c r="AA17">
-        <v>61.966000000000001</v>
+        <v>61.281999999999996</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD17">
+        <v>3.8460000000000036</v>
       </c>
       <c r="AE17" t="s">
         <v>303</v>
@@ -4200,9 +4412,15 @@
       <c r="O18" t="s">
         <v>289</v>
       </c>
+      <c r="P18" t="s">
+        <v>290</v>
+      </c>
       <c r="R18" t="s">
         <v>286</v>
       </c>
+      <c r="S18" t="s">
+        <v>282</v>
+      </c>
       <c r="U18" t="s">
         <v>286</v>
       </c>
@@ -4219,7 +4437,13 @@
         <v>1</v>
       </c>
       <c r="AA18">
-        <v>56.624000000000002</v>
+        <v>53.076999999999998</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD18">
+        <v>8.7180000000000035</v>
       </c>
       <c r="AE18" t="s">
         <v>303</v>
@@ -4268,9 +4492,15 @@
       <c r="O19" t="s">
         <v>289</v>
       </c>
+      <c r="P19" t="s">
+        <v>290</v>
+      </c>
       <c r="R19" t="s">
         <v>286</v>
       </c>
+      <c r="S19" t="s">
+        <v>282</v>
+      </c>
       <c r="U19" t="s">
         <v>286</v>
       </c>
@@ -4287,7 +4517,13 @@
         <v>1</v>
       </c>
       <c r="AA19">
-        <v>52.35</v>
+        <v>56.154000000000003</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD19">
+        <v>5.6409999999999982</v>
       </c>
       <c r="AE19" t="s">
         <v>303</v>
@@ -4309,22 +4545,710 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="M24" activeCellId="9" sqref="M6 M8 M10 M12 M14 M16 M18 M20 M22 M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E5">
+        <v>106.812</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>306</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>-0.16400000000000001</v>
+      </c>
+      <c r="M5">
+        <v>70.769000000000005</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.109</v>
+      </c>
+      <c r="E6">
+        <v>112.468</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>306</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>-0.16400000000000001</v>
+      </c>
+      <c r="M6">
+        <v>79.486999999999995</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2.536</v>
+      </c>
+      <c r="E7">
+        <v>113.239</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="M7">
+        <v>70.769000000000005</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2.5089999999999999</v>
+      </c>
+      <c r="E8">
+        <v>116.06699999999999</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>306</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.191</v>
+      </c>
+      <c r="M8">
+        <v>82.820999999999998</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2.5089999999999999</v>
+      </c>
+      <c r="E9">
+        <v>106.55500000000001</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>306</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2.5990000000000002</v>
+      </c>
+      <c r="M9">
+        <v>64.614999999999995</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2.5089999999999999</v>
+      </c>
+      <c r="E10">
+        <v>109.126</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>306</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>2.5710000000000002</v>
+      </c>
+      <c r="M10">
+        <v>71.281999999999996</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>4.6360000000000001</v>
+      </c>
+      <c r="E11">
+        <v>103.985</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>306</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>2.4889999999999999</v>
+      </c>
+      <c r="M11">
+        <v>67.691999999999993</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4.6639999999999997</v>
+      </c>
+      <c r="E12">
+        <v>109.89700000000001</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>306</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>2.5710000000000002</v>
+      </c>
+      <c r="M12">
+        <v>73.846000000000004</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>6.7089999999999996</v>
+      </c>
+      <c r="E13">
+        <v>104.242</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="M13">
+        <v>68.204999999999998</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>6.7089999999999996</v>
+      </c>
+      <c r="E14">
+        <v>106.812</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="M14">
+        <v>73.846000000000004</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>6.8449999999999998</v>
+      </c>
+      <c r="E15">
+        <v>100.9</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>306</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>4.7050000000000001</v>
+      </c>
+      <c r="M15">
+        <v>64.614999999999995</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>6.8449999999999998</v>
+      </c>
+      <c r="E16">
+        <v>103.47</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>4.7329999999999997</v>
+      </c>
+      <c r="M16">
+        <v>70.513000000000005</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>8.8089999999999993</v>
+      </c>
+      <c r="E17">
+        <v>101.414</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>6.7569999999999997</v>
+      </c>
+      <c r="M17">
+        <v>65.641000000000005</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>8.8360000000000003</v>
+      </c>
+      <c r="E18">
+        <v>106.812</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>306</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>6.7569999999999997</v>
+      </c>
+      <c r="M18">
+        <v>70.769000000000005</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>8.891</v>
+      </c>
+      <c r="E19">
+        <v>95.244</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>6.8659999999999997</v>
+      </c>
+      <c r="M19">
+        <v>61.281999999999996</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>100.643</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>6.8940000000000001</v>
+      </c>
+      <c r="M20">
+        <v>65.128</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>8.9179999999999993</v>
+      </c>
+      <c r="M21">
+        <v>53.076999999999998</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
+        <v>306</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>8.9179999999999993</v>
+      </c>
+      <c r="M22">
+        <v>61.795000000000002</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s">
+        <v>306</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>8.891</v>
+      </c>
+      <c r="M23">
+        <v>56.154000000000003</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>306</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>8.6720000000000006</v>
+      </c>
+      <c r="M24">
+        <v>61.795000000000002</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
